--- a/public/template/tru.xlsx
+++ b/public/template/tru.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="14355" windowHeight="4935"/>
+    <workbookView xWindow="480" yWindow="50" windowWidth="14360" windowHeight="4940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,49 +34,49 @@
     <t>Note: Make sure to upload this file in the True or False  form otherwise the question will not be uploaded.</t>
   </si>
   <si>
-    <t>Q1</t>
+    <t>Question 1</t>
   </si>
   <si>
-    <t>Q2</t>
+    <t>Question 2</t>
   </si>
   <si>
-    <t>Q3</t>
+    <t>Question 3</t>
   </si>
   <si>
-    <t>Q4</t>
+    <t>Question 4</t>
   </si>
   <si>
-    <t>Q5</t>
+    <t>Question 5</t>
   </si>
   <si>
-    <t>Q6</t>
+    <t>Question 6</t>
   </si>
   <si>
-    <t>Q7</t>
+    <t>Question 7</t>
   </si>
   <si>
-    <t>Q8</t>
+    <t>Question 8</t>
   </si>
   <si>
-    <t>Q9</t>
+    <t>Question 9</t>
   </si>
   <si>
-    <t>Q10</t>
+    <t>Question 10</t>
   </si>
   <si>
-    <t>Q11</t>
+    <t>Question 11</t>
   </si>
   <si>
-    <t>Q12</t>
+    <t>Question 12</t>
   </si>
   <si>
-    <t>Q13</t>
+    <t>Question 13</t>
   </si>
   <si>
-    <t>Q14</t>
+    <t>Question 14</t>
   </si>
   <si>
-    <t>Q15</t>
+    <t>Question 15</t>
   </si>
 </sst>
 </file>
@@ -167,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -191,9 +191,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -201,6 +198,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -217,7 +223,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$F$3" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$3" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -229,11 +235,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$D$8" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$D$8" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$F$9" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$9" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
@@ -245,11 +251,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$D$10" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$D$10" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$F$11" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$11" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
@@ -261,15 +267,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$D$4" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$D$4" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$D$12" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$D$12" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$F$13" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$13" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
@@ -281,11 +287,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$D$14" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$D$14" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$F$15" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$15" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
@@ -297,11 +303,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$D$16" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$D$16" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$F$17" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$17" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -317,7 +323,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$F$5" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$5" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -325,7 +331,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$F$5" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$5" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -337,11 +343,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$D$6" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$D$6" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$F$7" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$F$7" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -474,15 +480,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>314325</xdr:colOff>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>219075</xdr:rowOff>
+          <xdr:rowOff>222250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -556,15 +562,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>314325</xdr:colOff>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>219075</xdr:rowOff>
+          <xdr:rowOff>222250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -638,15 +644,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>314325</xdr:colOff>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
+          <xdr:rowOff>260350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -720,15 +726,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>314325</xdr:colOff>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -802,15 +808,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>314325</xdr:colOff>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -884,15 +890,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>314325</xdr:colOff>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -966,15 +972,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>314325</xdr:colOff>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1048,15 +1054,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>314325</xdr:colOff>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>257175</xdr:rowOff>
+          <xdr:rowOff>260350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1130,15 +1136,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>314325</xdr:colOff>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1212,15 +1218,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>314325</xdr:colOff>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1294,15 +1300,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>314325</xdr:colOff>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1376,15 +1382,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>314325</xdr:colOff>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1458,15 +1464,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>314325</xdr:colOff>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1507,7 +1513,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>304800</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1540,13 +1546,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>314325</xdr:colOff>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -1581,15 +1587,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>314325</xdr:colOff>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>317500</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>219075</xdr:rowOff>
+          <xdr:rowOff>222250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1950,20 +1956,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="39.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="13"/>
+    <col min="2" max="2" width="39.26953125" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="4"/>
-    <col min="8" max="8" width="9.140625" style="4" customWidth="1"/>
-    <col min="9" max="14" width="9.140625" style="4"/>
+    <col min="4" max="4" width="26.81640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="4"/>
+    <col min="8" max="8" width="9.1796875" style="4" customWidth="1"/>
+    <col min="9" max="11" width="9.1796875" style="4"/>
+    <col min="12" max="12" width="29.90625" style="4" customWidth="1"/>
+    <col min="13" max="14" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -1973,18 +1982,18 @@
       <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -2001,10 +2010,10 @@
       </c>
     </row>
     <row r="3" spans="1:12" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="5" t="b">
@@ -2017,21 +2026,21 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="5" t="b">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="5" t="b">
         <v>0</v>
@@ -2041,10 +2050,10 @@
       </c>
     </row>
     <row r="5" spans="1:12" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="5" t="b">
@@ -2057,21 +2066,21 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="5" t="b">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="5" t="b">
         <v>0</v>
@@ -2081,10 +2090,10 @@
       </c>
     </row>
     <row r="7" spans="1:12" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="11">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="5" t="b">
@@ -2097,21 +2106,21 @@
         <v>0</v>
       </c>
       <c r="F7" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="11">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="5" t="b">
         <v>1</v>
       </c>
       <c r="D8" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="5" t="b">
         <v>0</v>
@@ -2121,10 +2130,10 @@
       </c>
     </row>
     <row r="9" spans="1:12" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="11">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="5" t="b">
@@ -2137,21 +2146,21 @@
         <v>0</v>
       </c>
       <c r="F9" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="11">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="5" t="b">
         <v>1</v>
       </c>
       <c r="D10" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="5" t="b">
         <v>0</v>
@@ -2161,10 +2170,10 @@
       </c>
     </row>
     <row r="11" spans="1:12" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="11">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="5" t="b">
@@ -2177,21 +2186,21 @@
         <v>0</v>
       </c>
       <c r="F11" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="11">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="5" t="b">
         <v>1</v>
       </c>
       <c r="D12" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="5" t="b">
         <v>0</v>
@@ -2201,10 +2210,10 @@
       </c>
     </row>
     <row r="13" spans="1:12" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="11">
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="5" t="b">
@@ -2217,21 +2226,21 @@
         <v>0</v>
       </c>
       <c r="F13" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="11">
         <v>12</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="5" t="b">
         <v>1</v>
       </c>
       <c r="D14" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="5" t="b">
         <v>0</v>
@@ -2241,10 +2250,10 @@
       </c>
     </row>
     <row r="15" spans="1:12" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="11">
         <v>13</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="5" t="b">
@@ -2257,21 +2266,21 @@
         <v>0</v>
       </c>
       <c r="F15" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="11">
         <v>14</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="5" t="b">
         <v>1</v>
       </c>
       <c r="D16" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="5" t="b">
         <v>0</v>
@@ -2281,10 +2290,10 @@
       </c>
     </row>
     <row r="17" spans="1:10" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="11">
         <v>15</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="5" t="b">
@@ -2297,38 +2306,40 @@
         <v>0</v>
       </c>
       <c r="F17" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:10" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+    <row r="18" spans="1:10" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+    </row>
+    <row r="19" spans="1:10" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
     </row>
-    <row r="20" spans="1:10" s="4" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
+    <row r="20" spans="1:10" s="4" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
     </row>
   </sheetData>
-  <sheetProtection password="D692" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CA9C" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <mergeCells count="2">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A19:J20"/>
@@ -2413,15 +2424,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>314325</xdr:colOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
+                    <xdr:rowOff>222250</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2457,15 +2468,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>314325</xdr:colOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
+                    <xdr:rowOff>222250</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2501,15 +2512,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>314325</xdr:colOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>257175</xdr:rowOff>
+                    <xdr:rowOff>260350</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2545,15 +2556,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>314325</xdr:colOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2589,15 +2600,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>314325</xdr:colOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2633,15 +2644,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>314325</xdr:colOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2677,15 +2688,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>314325</xdr:colOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2721,15 +2732,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>314325</xdr:colOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>257175</xdr:rowOff>
+                    <xdr:rowOff>260350</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2765,15 +2776,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>314325</xdr:colOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2809,15 +2820,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>314325</xdr:colOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2853,15 +2864,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>314325</xdr:colOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2897,15 +2908,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>314325</xdr:colOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2941,15 +2952,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>314325</xdr:colOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2971,7 +2982,7 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>304800</xdr:colOff>
                     <xdr:row>17</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2985,13 +2996,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>314325</xdr:colOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -3007,15 +3018,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>314325</xdr:colOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>317500</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
+                    <xdr:rowOff>222250</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
